--- a/www/ig/fhir/ror/ValueSet-code-region-territorial-division.xlsx
+++ b/www/ig/fhir/ror/ValueSet-code-region-territorial-division.xlsx
@@ -34,7 +34,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -46,7 +46,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Fusion du valueset J223-TypeDivisionTerritoriale-ROR et JDV_J237-RegionOM-ROR</t>
+    <t>Fusion des valuesets pour le code de la division territoriale</t>
   </si>
   <si>
     <t>Status</t>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-12T17:55:39+02:00</t>
+    <t>2023-06-02T12:02:38+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
